--- a/20230116_MTT_1108_GEM_Verte.xlsx
+++ b/20230116_MTT_1108_GEM_Verte.xlsx
@@ -5,12 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="550.0" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Result Data" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="Schema" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="output" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="36">
   <si>
     <t xml:space="preserve">Raw Data{Wavelength:550.0}</t>
   </si>
@@ -90,6 +91,9 @@
     <t xml:space="preserve">Result Data</t>
   </si>
   <si>
+    <t xml:space="preserve">pallete design</t>
+  </si>
+  <si>
     <t xml:space="preserve">blank</t>
   </si>
   <si>
@@ -114,15 +118,28 @@
     <t xml:space="preserve">1mM</t>
   </si>
   <si>
+    <t xml:space="preserve">measured raw data</t>
+  </si>
+  <si>
     <t xml:space="preserve">blank avr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">subtracted value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">override 0 for unneeded wells</t>
+  </si>
+  <si>
+    <t xml:space="preserve">copy value(not the formula) of the above data to a new sheet and export in csv format</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="General"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -167,12 +184,19 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
@@ -201,7 +225,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -214,20 +238,40 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1037,936 +1081,1471 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M31"/>
+  <dimension ref="A1:M47"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H18" activeCellId="0" sqref="H18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A23" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A37" activeCellId="0" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.1328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="3" t="s">
+      <c r="A1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="5"/>
+      <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M2" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="4" t="n">
+      <c r="B3" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="7" t="n">
         <v>0.048</v>
       </c>
-      <c r="D2" s="4" t="n">
+      <c r="D3" s="7" t="n">
         <v>0.048</v>
       </c>
-      <c r="E2" s="4" t="n">
+      <c r="E3" s="7" t="n">
         <v>0.046</v>
       </c>
-      <c r="F2" s="4" t="n">
+      <c r="F3" s="7" t="n">
         <v>0.048</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="H3" s="5" t="s">
-        <v>23</v>
-      </c>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="5"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="H4" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
+      <c r="B5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="5"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="H5" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
+      <c r="B6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="5"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="H6" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
+      <c r="B7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="5"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="H7" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
+      <c r="B8" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="5"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="H8" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="s">
+      <c r="B9" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="5"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="3" t="s">
+      <c r="B10" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="5"/>
+      <c r="B13" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C13" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D13" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E13" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F13" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G13" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="H13" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="I13" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J11" s="3" t="s">
+      <c r="J13" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K11" s="3" t="s">
+      <c r="K13" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L11" s="3" t="s">
+      <c r="L13" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M11" s="3" t="s">
+      <c r="M13" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="s">
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="3" t="n">
+      <c r="B14" s="6" t="n">
         <v>0.062</v>
       </c>
-      <c r="C12" s="3" t="n">
+      <c r="C14" s="6" t="n">
         <v>0.048</v>
       </c>
-      <c r="D12" s="3" t="n">
+      <c r="D14" s="6" t="n">
         <v>0.048</v>
       </c>
-      <c r="E12" s="3" t="n">
+      <c r="E14" s="6" t="n">
         <v>0.046</v>
       </c>
-      <c r="F12" s="3" t="n">
+      <c r="F14" s="6" t="n">
         <v>0.048</v>
       </c>
-      <c r="G12" s="3" t="n">
+      <c r="G14" s="6" t="n">
         <v>0.037</v>
       </c>
-      <c r="H12" s="3" t="n">
+      <c r="H14" s="6" t="n">
         <v>0.035</v>
       </c>
-      <c r="I12" s="3" t="n">
-        <v>0.036</v>
-      </c>
-      <c r="J12" s="3" t="n">
+      <c r="I14" s="6" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="J14" s="6" t="n">
         <v>0.035</v>
       </c>
-      <c r="K12" s="3" t="n">
+      <c r="K14" s="6" t="n">
         <v>0.037</v>
       </c>
-      <c r="L12" s="3" t="n">
+      <c r="L14" s="6" t="n">
         <v>0.035</v>
       </c>
-      <c r="M12" s="3" t="n">
-        <v>0.036</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="s">
+      <c r="M14" s="6" t="n">
+        <v>0.036</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="3" t="n">
+      <c r="B15" s="6" t="n">
         <v>0.278</v>
       </c>
-      <c r="C13" s="3" t="n">
+      <c r="C15" s="6" t="n">
         <v>0.276</v>
       </c>
-      <c r="D13" s="3" t="n">
+      <c r="D15" s="6" t="n">
         <v>0.287</v>
       </c>
-      <c r="E13" s="3" t="n">
+      <c r="E15" s="6" t="n">
         <v>0.276</v>
       </c>
-      <c r="F13" s="3" t="n">
+      <c r="F15" s="6" t="n">
         <v>0.287</v>
       </c>
-      <c r="G13" s="3" t="n">
+      <c r="G15" s="6" t="n">
         <v>0.037</v>
       </c>
-      <c r="H13" s="3" t="n">
+      <c r="H15" s="6" t="n">
         <v>0.306</v>
       </c>
-      <c r="I13" s="3" t="n">
+      <c r="I15" s="6" t="n">
         <v>0.259</v>
       </c>
-      <c r="J13" s="3" t="n">
+      <c r="J15" s="6" t="n">
         <v>0.244</v>
       </c>
-      <c r="K13" s="3" t="n">
+      <c r="K15" s="6" t="n">
         <v>0.306</v>
       </c>
-      <c r="L13" s="3" t="n">
+      <c r="L15" s="6" t="n">
         <v>0.279</v>
       </c>
-      <c r="M13" s="3" t="n">
-        <v>0.036</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="s">
+      <c r="M15" s="6" t="n">
+        <v>0.036</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="3" t="n">
+      <c r="B16" s="6" t="n">
         <v>0.153</v>
       </c>
-      <c r="C14" s="3" t="n">
+      <c r="C16" s="6" t="n">
         <v>0.126</v>
       </c>
-      <c r="D14" s="3" t="n">
+      <c r="D16" s="6" t="n">
         <v>0.132</v>
       </c>
-      <c r="E14" s="3" t="n">
+      <c r="E16" s="6" t="n">
         <v>0.127</v>
       </c>
-      <c r="F14" s="3" t="n">
+      <c r="F16" s="6" t="n">
         <v>0.142</v>
       </c>
-      <c r="G14" s="3" t="n">
+      <c r="G16" s="6" t="n">
         <v>0.039</v>
       </c>
-      <c r="H14" s="3" t="n">
+      <c r="H16" s="6" t="n">
         <v>0.284</v>
       </c>
-      <c r="I14" s="3" t="n">
+      <c r="I16" s="6" t="n">
         <v>0.262</v>
       </c>
-      <c r="J14" s="3" t="n">
+      <c r="J16" s="6" t="n">
         <v>0.313</v>
       </c>
-      <c r="K14" s="3" t="n">
+      <c r="K16" s="6" t="n">
         <v>0.292</v>
       </c>
-      <c r="L14" s="3" t="n">
+      <c r="L16" s="6" t="n">
         <v>0.304</v>
       </c>
-      <c r="M14" s="3" t="n">
-        <v>0.036</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="s">
+      <c r="M16" s="6" t="n">
+        <v>0.036</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="3" t="n">
+      <c r="B17" s="6" t="n">
         <v>0.07</v>
       </c>
-      <c r="C15" s="3" t="n">
+      <c r="C17" s="6" t="n">
         <v>0.07</v>
       </c>
-      <c r="D15" s="3" t="n">
+      <c r="D17" s="6" t="n">
         <v>0.072</v>
       </c>
-      <c r="E15" s="3" t="n">
+      <c r="E17" s="6" t="n">
         <v>0.066</v>
       </c>
-      <c r="F15" s="3" t="n">
+      <c r="F17" s="6" t="n">
         <v>0.069</v>
       </c>
-      <c r="G15" s="3" t="n">
+      <c r="G17" s="6" t="n">
         <v>0.037</v>
       </c>
-      <c r="H15" s="3" t="n">
+      <c r="H17" s="6" t="n">
         <v>0.285</v>
       </c>
-      <c r="I15" s="3" t="n">
+      <c r="I17" s="6" t="n">
         <v>0.277</v>
       </c>
-      <c r="J15" s="3" t="n">
+      <c r="J17" s="6" t="n">
         <v>0.265</v>
       </c>
-      <c r="K15" s="3" t="n">
+      <c r="K17" s="6" t="n">
         <v>0.25</v>
       </c>
-      <c r="L15" s="3" t="n">
+      <c r="L17" s="6" t="n">
         <v>0.305</v>
       </c>
-      <c r="M15" s="3" t="n">
-        <v>0.036</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3" t="s">
+      <c r="M17" s="6" t="n">
+        <v>0.036</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="3" t="n">
+      <c r="B18" s="6" t="n">
         <v>0.073</v>
       </c>
-      <c r="C16" s="3" t="n">
+      <c r="C18" s="6" t="n">
         <v>0.062</v>
       </c>
-      <c r="D16" s="3" t="n">
+      <c r="D18" s="6" t="n">
         <v>0.062</v>
       </c>
-      <c r="E16" s="3" t="n">
+      <c r="E18" s="6" t="n">
         <v>0.065</v>
       </c>
-      <c r="F16" s="3" t="n">
+      <c r="F18" s="6" t="n">
         <v>0.068</v>
       </c>
-      <c r="G16" s="3" t="n">
+      <c r="G18" s="6" t="n">
         <v>0.038</v>
       </c>
-      <c r="H16" s="3" t="n">
+      <c r="H18" s="6" t="n">
         <v>0.163</v>
       </c>
-      <c r="I16" s="3" t="n">
+      <c r="I18" s="6" t="n">
         <v>0.174</v>
       </c>
-      <c r="J16" s="3" t="n">
+      <c r="J18" s="6" t="n">
         <v>0.158</v>
       </c>
-      <c r="K16" s="3" t="n">
+      <c r="K18" s="6" t="n">
         <v>0.193</v>
       </c>
-      <c r="L16" s="3" t="n">
+      <c r="L18" s="6" t="n">
         <v>0.171</v>
       </c>
-      <c r="M16" s="3" t="n">
-        <v>0.036</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3" t="s">
+      <c r="M18" s="6" t="n">
+        <v>0.036</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="3" t="n">
+      <c r="B19" s="6" t="n">
         <v>0.047</v>
       </c>
-      <c r="C17" s="3" t="n">
+      <c r="C19" s="6" t="n">
         <v>0.045</v>
       </c>
-      <c r="D17" s="3" t="n">
+      <c r="D19" s="6" t="n">
         <v>0.046</v>
       </c>
-      <c r="E17" s="3" t="n">
+      <c r="E19" s="6" t="n">
         <v>0.048</v>
       </c>
-      <c r="F17" s="3" t="n">
+      <c r="F19" s="6" t="n">
         <v>0.046</v>
       </c>
-      <c r="G17" s="3" t="n">
+      <c r="G19" s="6" t="n">
         <v>0.037</v>
       </c>
-      <c r="H17" s="3" t="n">
+      <c r="H19" s="6" t="n">
         <v>0.047</v>
       </c>
-      <c r="I17" s="3" t="n">
+      <c r="I19" s="6" t="n">
         <v>0.048</v>
       </c>
-      <c r="J17" s="3" t="n">
+      <c r="J19" s="6" t="n">
         <v>0.045</v>
       </c>
-      <c r="K17" s="3" t="n">
+      <c r="K19" s="6" t="n">
         <v>0.048</v>
       </c>
-      <c r="L17" s="3" t="n">
+      <c r="L19" s="6" t="n">
         <v>0.049</v>
       </c>
-      <c r="M17" s="3" t="n">
+      <c r="M19" s="6" t="n">
         <v>0.037</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3" t="s">
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="3" t="n">
+      <c r="B20" s="6" t="n">
         <v>0.05</v>
       </c>
-      <c r="C18" s="3" t="n">
+      <c r="C20" s="6" t="n">
         <v>0.049</v>
       </c>
-      <c r="D18" s="3" t="n">
+      <c r="D20" s="6" t="n">
         <v>0.048</v>
       </c>
-      <c r="E18" s="3" t="n">
+      <c r="E20" s="6" t="n">
         <v>0.052</v>
       </c>
-      <c r="F18" s="3" t="n">
+      <c r="F20" s="6" t="n">
         <v>0.051</v>
       </c>
-      <c r="G18" s="3" t="n">
-        <v>0.036</v>
-      </c>
-      <c r="H18" s="3" t="n">
+      <c r="G20" s="6" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="H20" s="6" t="n">
         <v>0.051</v>
       </c>
-      <c r="I18" s="3" t="n">
+      <c r="I20" s="6" t="n">
         <v>0.049</v>
       </c>
-      <c r="J18" s="3" t="n">
+      <c r="J20" s="6" t="n">
         <v>0.048</v>
       </c>
-      <c r="K18" s="3" t="n">
+      <c r="K20" s="6" t="n">
         <v>0.049</v>
       </c>
-      <c r="L18" s="3" t="n">
+      <c r="L20" s="6" t="n">
         <v>0.048</v>
       </c>
-      <c r="M18" s="3" t="n">
+      <c r="M20" s="6" t="n">
         <v>0.035</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="3" t="n">
-        <v>0.054</v>
-      </c>
-      <c r="C19" s="3" t="n">
-        <v>0.053</v>
-      </c>
-      <c r="D19" s="3" t="n">
-        <v>0.057</v>
-      </c>
-      <c r="E19" s="3" t="n">
-        <v>0.057</v>
-      </c>
-      <c r="F19" s="3" t="n">
-        <v>0.053</v>
-      </c>
-      <c r="G19" s="3" t="n">
-        <v>0.035</v>
-      </c>
-      <c r="H19" s="3" t="n">
-        <v>0.036</v>
-      </c>
-      <c r="I19" s="3" t="n">
-        <v>0.036</v>
-      </c>
-      <c r="J19" s="3" t="n">
-        <v>0.036</v>
-      </c>
-      <c r="K19" s="3" t="n">
-        <v>0.034</v>
-      </c>
-      <c r="L19" s="3" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="M19" s="3" t="n">
-        <v>0.036</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B21" s="3" t="n">
-        <f aca="false">AVERAGE(B12:F12)</f>
+        <v>20</v>
+      </c>
+      <c r="B21" s="6" t="n">
+        <v>0.054</v>
+      </c>
+      <c r="C21" s="6" t="n">
+        <v>0.053</v>
+      </c>
+      <c r="D21" s="6" t="n">
+        <v>0.057</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>0.057</v>
+      </c>
+      <c r="F21" s="6" t="n">
+        <v>0.053</v>
+      </c>
+      <c r="G21" s="6" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="H21" s="6" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="I21" s="6" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="J21" s="6" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="K21" s="6" t="n">
+        <v>0.034</v>
+      </c>
+      <c r="L21" s="6" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="M21" s="6" t="n">
+        <v>0.036</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="10" t="n">
+        <f aca="false">AVERAGE(B14:F14)</f>
         <v>0.0504</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="3" t="s">
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="5"/>
+      <c r="B26" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C26" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D26" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E26" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="F26" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G23" s="3" t="s">
+      <c r="G26" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H23" s="3" t="s">
+      <c r="H26" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I23" s="3" t="s">
+      <c r="I26" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J23" s="3" t="s">
+      <c r="J26" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K23" s="3" t="s">
+      <c r="K26" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L23" s="3" t="s">
+      <c r="L26" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M23" s="3" t="s">
+      <c r="M26" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="3" t="s">
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="0" t="n">
-        <f aca="false">B12-$B$21</f>
+      <c r="B27" s="11" t="n">
+        <f aca="false">B14-$B$23</f>
         <v>0.0116</v>
       </c>
-      <c r="C24" s="0" t="n">
-        <f aca="false">C12-$B$21</f>
+      <c r="C27" s="11" t="n">
+        <f aca="false">C14-$B$23</f>
         <v>-0.0024</v>
       </c>
-      <c r="D24" s="0" t="n">
-        <f aca="false">D12-$B$21</f>
+      <c r="D27" s="11" t="n">
+        <f aca="false">D14-$B$23</f>
         <v>-0.0024</v>
       </c>
-      <c r="E24" s="0" t="n">
-        <f aca="false">E12-$B$21</f>
+      <c r="E27" s="11" t="n">
+        <f aca="false">E14-$B$23</f>
         <v>-0.0044</v>
       </c>
-      <c r="F24" s="0" t="n">
-        <f aca="false">F12-$B$21</f>
+      <c r="F27" s="11" t="n">
+        <f aca="false">F14-$B$23</f>
         <v>-0.0024</v>
       </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="3" t="s">
+      <c r="G27" s="11" t="n">
+        <f aca="false">G14-$B$23</f>
+        <v>-0.0134</v>
+      </c>
+      <c r="H27" s="11" t="n">
+        <f aca="false">H14-$B$23</f>
+        <v>-0.0154</v>
+      </c>
+      <c r="I27" s="11" t="n">
+        <f aca="false">I14-$B$23</f>
+        <v>-0.0144</v>
+      </c>
+      <c r="J27" s="11" t="n">
+        <f aca="false">J14-$B$23</f>
+        <v>-0.0154</v>
+      </c>
+      <c r="K27" s="11" t="n">
+        <f aca="false">K14-$B$23</f>
+        <v>-0.0134</v>
+      </c>
+      <c r="L27" s="11" t="n">
+        <f aca="false">L14-$B$23</f>
+        <v>-0.0154</v>
+      </c>
+      <c r="M27" s="11" t="n">
+        <f aca="false">M14-$B$23</f>
+        <v>-0.0144</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="0" t="n">
-        <f aca="false">B13-$B$21</f>
+      <c r="B28" s="11" t="n">
+        <f aca="false">B15-$B$23</f>
         <v>0.2276</v>
       </c>
-      <c r="C25" s="0" t="n">
-        <f aca="false">C13-$B$21</f>
+      <c r="C28" s="11" t="n">
+        <f aca="false">C15-$B$23</f>
         <v>0.2256</v>
       </c>
-      <c r="D25" s="0" t="n">
-        <f aca="false">D13-$B$21</f>
+      <c r="D28" s="11" t="n">
+        <f aca="false">D15-$B$23</f>
         <v>0.2366</v>
       </c>
-      <c r="E25" s="0" t="n">
-        <f aca="false">E13-$B$21</f>
+      <c r="E28" s="11" t="n">
+        <f aca="false">E15-$B$23</f>
         <v>0.2256</v>
       </c>
-      <c r="F25" s="0" t="n">
-        <f aca="false">F13-$B$21</f>
+      <c r="F28" s="11" t="n">
+        <f aca="false">F15-$B$23</f>
         <v>0.2366</v>
       </c>
-      <c r="H25" s="0" t="n">
-        <f aca="false">H13-$B$21</f>
+      <c r="G28" s="11" t="n">
+        <f aca="false">G15-$B$23</f>
+        <v>-0.0134</v>
+      </c>
+      <c r="H28" s="11" t="n">
+        <f aca="false">H15-$B$23</f>
         <v>0.2556</v>
       </c>
-      <c r="I25" s="0" t="n">
-        <f aca="false">I13-$B$21</f>
+      <c r="I28" s="11" t="n">
+        <f aca="false">I15-$B$23</f>
         <v>0.2086</v>
       </c>
-      <c r="J25" s="0" t="n">
-        <f aca="false">J13-$B$21</f>
+      <c r="J28" s="11" t="n">
+        <f aca="false">J15-$B$23</f>
         <v>0.1936</v>
       </c>
-      <c r="K25" s="0" t="n">
-        <f aca="false">K13-$B$21</f>
+      <c r="K28" s="11" t="n">
+        <f aca="false">K15-$B$23</f>
         <v>0.2556</v>
       </c>
-      <c r="L25" s="0" t="n">
-        <f aca="false">L13-$B$21</f>
+      <c r="L28" s="11" t="n">
+        <f aca="false">L15-$B$23</f>
         <v>0.2286</v>
       </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="3" t="s">
+      <c r="M28" s="11" t="n">
+        <f aca="false">M15-$B$23</f>
+        <v>-0.0144</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B26" s="0" t="n">
-        <f aca="false">B14-$B$21</f>
+      <c r="B29" s="11" t="n">
+        <f aca="false">B16-$B$23</f>
         <v>0.1026</v>
       </c>
-      <c r="C26" s="0" t="n">
-        <f aca="false">C14-$B$21</f>
+      <c r="C29" s="11" t="n">
+        <f aca="false">C16-$B$23</f>
         <v>0.0756</v>
       </c>
-      <c r="D26" s="0" t="n">
-        <f aca="false">D14-$B$21</f>
+      <c r="D29" s="11" t="n">
+        <f aca="false">D16-$B$23</f>
         <v>0.0816</v>
       </c>
-      <c r="E26" s="0" t="n">
-        <f aca="false">E14-$B$21</f>
+      <c r="E29" s="11" t="n">
+        <f aca="false">E16-$B$23</f>
         <v>0.0766</v>
       </c>
-      <c r="F26" s="0" t="n">
-        <f aca="false">F14-$B$21</f>
+      <c r="F29" s="11" t="n">
+        <f aca="false">F16-$B$23</f>
         <v>0.0916</v>
       </c>
-      <c r="H26" s="0" t="n">
-        <f aca="false">H14-$B$21</f>
+      <c r="G29" s="11" t="n">
+        <f aca="false">G16-$B$23</f>
+        <v>-0.0114</v>
+      </c>
+      <c r="H29" s="11" t="n">
+        <f aca="false">H16-$B$23</f>
         <v>0.2336</v>
       </c>
-      <c r="I26" s="0" t="n">
-        <f aca="false">I14-$B$21</f>
+      <c r="I29" s="11" t="n">
+        <f aca="false">I16-$B$23</f>
         <v>0.2116</v>
       </c>
-      <c r="J26" s="0" t="n">
-        <f aca="false">J14-$B$21</f>
+      <c r="J29" s="11" t="n">
+        <f aca="false">J16-$B$23</f>
         <v>0.2626</v>
       </c>
-      <c r="K26" s="0" t="n">
-        <f aca="false">K14-$B$21</f>
+      <c r="K29" s="11" t="n">
+        <f aca="false">K16-$B$23</f>
         <v>0.2416</v>
       </c>
-      <c r="L26" s="0" t="n">
-        <f aca="false">L14-$B$21</f>
+      <c r="L29" s="11" t="n">
+        <f aca="false">L16-$B$23</f>
         <v>0.2536</v>
       </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="3" t="s">
+      <c r="M29" s="11" t="n">
+        <f aca="false">M16-$B$23</f>
+        <v>-0.0144</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B27" s="0" t="n">
-        <f aca="false">B15-$B$21</f>
+      <c r="B30" s="11" t="n">
+        <f aca="false">B17-$B$23</f>
         <v>0.0196</v>
       </c>
-      <c r="C27" s="0" t="n">
-        <f aca="false">C15-$B$21</f>
+      <c r="C30" s="11" t="n">
+        <f aca="false">C17-$B$23</f>
         <v>0.0196</v>
       </c>
-      <c r="D27" s="0" t="n">
-        <f aca="false">D15-$B$21</f>
+      <c r="D30" s="11" t="n">
+        <f aca="false">D17-$B$23</f>
         <v>0.0216</v>
       </c>
-      <c r="E27" s="0" t="n">
-        <f aca="false">E15-$B$21</f>
+      <c r="E30" s="11" t="n">
+        <f aca="false">E17-$B$23</f>
         <v>0.0156</v>
       </c>
-      <c r="F27" s="0" t="n">
-        <f aca="false">F15-$B$21</f>
+      <c r="F30" s="11" t="n">
+        <f aca="false">F17-$B$23</f>
         <v>0.0186</v>
       </c>
-      <c r="H27" s="0" t="n">
-        <f aca="false">H15-$B$21</f>
+      <c r="G30" s="11" t="n">
+        <f aca="false">G17-$B$23</f>
+        <v>-0.0134</v>
+      </c>
+      <c r="H30" s="11" t="n">
+        <f aca="false">H17-$B$23</f>
         <v>0.2346</v>
       </c>
-      <c r="I27" s="0" t="n">
-        <f aca="false">I15-$B$21</f>
+      <c r="I30" s="11" t="n">
+        <f aca="false">I17-$B$23</f>
         <v>0.2266</v>
       </c>
-      <c r="J27" s="0" t="n">
-        <f aca="false">J15-$B$21</f>
+      <c r="J30" s="11" t="n">
+        <f aca="false">J17-$B$23</f>
         <v>0.2146</v>
       </c>
-      <c r="K27" s="0" t="n">
-        <f aca="false">K15-$B$21</f>
+      <c r="K30" s="11" t="n">
+        <f aca="false">K17-$B$23</f>
         <v>0.1996</v>
       </c>
-      <c r="L27" s="0" t="n">
-        <f aca="false">L15-$B$21</f>
+      <c r="L30" s="11" t="n">
+        <f aca="false">L17-$B$23</f>
         <v>0.2546</v>
       </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="3" t="s">
+      <c r="M30" s="11" t="n">
+        <f aca="false">M17-$B$23</f>
+        <v>-0.0144</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B28" s="0" t="n">
-        <f aca="false">B16-$B$21</f>
+      <c r="B31" s="11" t="n">
+        <f aca="false">B18-$B$23</f>
         <v>0.0226</v>
       </c>
-      <c r="C28" s="0" t="n">
-        <f aca="false">C16-$B$21</f>
+      <c r="C31" s="11" t="n">
+        <f aca="false">C18-$B$23</f>
         <v>0.0116</v>
       </c>
-      <c r="D28" s="0" t="n">
-        <f aca="false">D16-$B$21</f>
+      <c r="D31" s="11" t="n">
+        <f aca="false">D18-$B$23</f>
         <v>0.0116</v>
       </c>
-      <c r="E28" s="0" t="n">
-        <f aca="false">E16-$B$21</f>
+      <c r="E31" s="11" t="n">
+        <f aca="false">E18-$B$23</f>
         <v>0.0146</v>
       </c>
-      <c r="F28" s="0" t="n">
-        <f aca="false">F16-$B$21</f>
+      <c r="F31" s="11" t="n">
+        <f aca="false">F18-$B$23</f>
         <v>0.0176</v>
       </c>
-      <c r="H28" s="0" t="n">
-        <f aca="false">H16-$B$21</f>
+      <c r="G31" s="11" t="n">
+        <f aca="false">G18-$B$23</f>
+        <v>-0.0124</v>
+      </c>
+      <c r="H31" s="11" t="n">
+        <f aca="false">H18-$B$23</f>
         <v>0.1126</v>
       </c>
-      <c r="I28" s="0" t="n">
-        <f aca="false">I16-$B$21</f>
+      <c r="I31" s="11" t="n">
+        <f aca="false">I18-$B$23</f>
         <v>0.1236</v>
       </c>
-      <c r="J28" s="0" t="n">
-        <f aca="false">J16-$B$21</f>
+      <c r="J31" s="11" t="n">
+        <f aca="false">J18-$B$23</f>
         <v>0.1076</v>
       </c>
-      <c r="K28" s="0" t="n">
-        <f aca="false">K16-$B$21</f>
+      <c r="K31" s="11" t="n">
+        <f aca="false">K18-$B$23</f>
         <v>0.1426</v>
       </c>
-      <c r="L28" s="0" t="n">
-        <f aca="false">L16-$B$21</f>
+      <c r="L31" s="11" t="n">
+        <f aca="false">L18-$B$23</f>
         <v>0.1206</v>
       </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="3" t="s">
+      <c r="M31" s="11" t="n">
+        <f aca="false">M18-$B$23</f>
+        <v>-0.0144</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B29" s="0" t="n">
-        <f aca="false">B17-$B$21</f>
+      <c r="B32" s="11" t="n">
+        <f aca="false">B19-$B$23</f>
         <v>-0.0034</v>
       </c>
-      <c r="C29" s="0" t="n">
-        <f aca="false">C17-$B$21</f>
+      <c r="C32" s="11" t="n">
+        <f aca="false">C19-$B$23</f>
         <v>-0.0054</v>
       </c>
-      <c r="D29" s="0" t="n">
-        <f aca="false">D17-$B$21</f>
+      <c r="D32" s="11" t="n">
+        <f aca="false">D19-$B$23</f>
         <v>-0.0044</v>
       </c>
-      <c r="E29" s="0" t="n">
-        <f aca="false">E17-$B$21</f>
+      <c r="E32" s="11" t="n">
+        <f aca="false">E19-$B$23</f>
         <v>-0.0024</v>
       </c>
-      <c r="F29" s="0" t="n">
-        <f aca="false">F17-$B$21</f>
+      <c r="F32" s="11" t="n">
+        <f aca="false">F19-$B$23</f>
         <v>-0.0044</v>
       </c>
-      <c r="H29" s="0" t="n">
-        <f aca="false">H17-$B$21</f>
+      <c r="G32" s="11" t="n">
+        <f aca="false">G19-$B$23</f>
+        <v>-0.0134</v>
+      </c>
+      <c r="H32" s="11" t="n">
+        <f aca="false">H19-$B$23</f>
         <v>-0.0034</v>
       </c>
-      <c r="I29" s="0" t="n">
-        <f aca="false">I17-$B$21</f>
+      <c r="I32" s="11" t="n">
+        <f aca="false">I19-$B$23</f>
         <v>-0.0024</v>
       </c>
-      <c r="J29" s="0" t="n">
-        <f aca="false">J17-$B$21</f>
+      <c r="J32" s="11" t="n">
+        <f aca="false">J19-$B$23</f>
         <v>-0.0054</v>
       </c>
-      <c r="K29" s="0" t="n">
-        <f aca="false">K17-$B$21</f>
+      <c r="K32" s="11" t="n">
+        <f aca="false">K19-$B$23</f>
         <v>-0.0024</v>
       </c>
-      <c r="L29" s="0" t="n">
-        <f aca="false">L17-$B$21</f>
+      <c r="L32" s="11" t="n">
+        <f aca="false">L19-$B$23</f>
         <v>-0.0014</v>
       </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="3" t="s">
+      <c r="M32" s="11" t="n">
+        <f aca="false">M19-$B$23</f>
+        <v>-0.0134</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B30" s="0" t="n">
-        <f aca="false">B18-$B$21</f>
+      <c r="B33" s="11" t="n">
+        <f aca="false">B20-$B$23</f>
         <v>-0.000399999999999998</v>
       </c>
-      <c r="C30" s="0" t="n">
-        <f aca="false">C18-$B$21</f>
+      <c r="C33" s="11" t="n">
+        <f aca="false">C20-$B$23</f>
         <v>-0.0014</v>
       </c>
-      <c r="D30" s="0" t="n">
-        <f aca="false">D18-$B$21</f>
+      <c r="D33" s="11" t="n">
+        <f aca="false">D20-$B$23</f>
         <v>-0.0024</v>
       </c>
-      <c r="E30" s="0" t="n">
-        <f aca="false">E18-$B$21</f>
+      <c r="E33" s="11" t="n">
+        <f aca="false">E20-$B$23</f>
         <v>0.0016</v>
       </c>
-      <c r="F30" s="0" t="n">
-        <f aca="false">F18-$B$21</f>
+      <c r="F33" s="11" t="n">
+        <f aca="false">F20-$B$23</f>
         <v>0.000599999999999996</v>
       </c>
-      <c r="H30" s="0" t="n">
-        <f aca="false">H18-$B$21</f>
+      <c r="G33" s="11" t="n">
+        <f aca="false">G20-$B$23</f>
+        <v>-0.0144</v>
+      </c>
+      <c r="H33" s="11" t="n">
+        <f aca="false">H20-$B$23</f>
         <v>0.000599999999999996</v>
       </c>
-      <c r="I30" s="0" t="n">
-        <f aca="false">I18-$B$21</f>
+      <c r="I33" s="11" t="n">
+        <f aca="false">I20-$B$23</f>
         <v>-0.0014</v>
       </c>
-      <c r="J30" s="0" t="n">
-        <f aca="false">J18-$B$21</f>
+      <c r="J33" s="11" t="n">
+        <f aca="false">J20-$B$23</f>
         <v>-0.0024</v>
       </c>
-      <c r="K30" s="0" t="n">
-        <f aca="false">K18-$B$21</f>
+      <c r="K33" s="11" t="n">
+        <f aca="false">K20-$B$23</f>
         <v>-0.0014</v>
       </c>
-      <c r="L30" s="0" t="n">
-        <f aca="false">L18-$B$21</f>
+      <c r="L33" s="11" t="n">
+        <f aca="false">L20-$B$23</f>
         <v>-0.0024</v>
       </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="3" t="s">
+      <c r="M33" s="11" t="n">
+        <f aca="false">M20-$B$23</f>
+        <v>-0.0154</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B31" s="0" t="n">
-        <f aca="false">B19-$B$21</f>
+      <c r="B34" s="11" t="n">
+        <f aca="false">B21-$B$23</f>
         <v>0.0036</v>
       </c>
-      <c r="C31" s="0" t="n">
-        <f aca="false">C19-$B$21</f>
+      <c r="C34" s="11" t="n">
+        <f aca="false">C21-$B$23</f>
         <v>0.0026</v>
       </c>
-      <c r="D31" s="0" t="n">
-        <f aca="false">D19-$B$21</f>
+      <c r="D34" s="11" t="n">
+        <f aca="false">D21-$B$23</f>
         <v>0.0066</v>
       </c>
-      <c r="E31" s="0" t="n">
-        <f aca="false">E19-$B$21</f>
+      <c r="E34" s="11" t="n">
+        <f aca="false">E21-$B$23</f>
         <v>0.0066</v>
       </c>
-      <c r="F31" s="0" t="n">
-        <f aca="false">F19-$B$21</f>
+      <c r="F34" s="11" t="n">
+        <f aca="false">F21-$B$23</f>
         <v>0.0026</v>
+      </c>
+      <c r="G34" s="11" t="n">
+        <f aca="false">G21-$B$23</f>
+        <v>-0.0154</v>
+      </c>
+      <c r="H34" s="11" t="n">
+        <f aca="false">H21-$B$23</f>
+        <v>-0.0144</v>
+      </c>
+      <c r="I34" s="11" t="n">
+        <f aca="false">I21-$B$23</f>
+        <v>-0.0144</v>
+      </c>
+      <c r="J34" s="11" t="n">
+        <f aca="false">J21-$B$23</f>
+        <v>-0.0144</v>
+      </c>
+      <c r="K34" s="11" t="n">
+        <f aca="false">K21-$B$23</f>
+        <v>-0.0164</v>
+      </c>
+      <c r="L34" s="11" t="n">
+        <f aca="false">L21-$B$23</f>
+        <v>-0.0104</v>
+      </c>
+      <c r="M34" s="11" t="n">
+        <f aca="false">M21-$B$23</f>
+        <v>-0.0144</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="5"/>
+      <c r="B37" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I37" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J37" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K37" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L37" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M37" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B38" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B39" s="11" t="n">
+        <v>0.2276</v>
+      </c>
+      <c r="C39" s="11" t="n">
+        <v>0.2256</v>
+      </c>
+      <c r="D39" s="11" t="n">
+        <v>0.2366</v>
+      </c>
+      <c r="E39" s="11" t="n">
+        <v>0.2256</v>
+      </c>
+      <c r="F39" s="11" t="n">
+        <v>0.2366</v>
+      </c>
+      <c r="G39" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" s="11" t="n">
+        <v>0.2556</v>
+      </c>
+      <c r="I39" s="11" t="n">
+        <v>0.2086</v>
+      </c>
+      <c r="J39" s="11" t="n">
+        <v>0.1936</v>
+      </c>
+      <c r="K39" s="11" t="n">
+        <v>0.2556</v>
+      </c>
+      <c r="L39" s="11" t="n">
+        <v>0.2286</v>
+      </c>
+      <c r="M39" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B40" s="11" t="n">
+        <v>0.1026</v>
+      </c>
+      <c r="C40" s="11" t="n">
+        <v>0.0756</v>
+      </c>
+      <c r="D40" s="11" t="n">
+        <v>0.0816</v>
+      </c>
+      <c r="E40" s="11" t="n">
+        <v>0.0766</v>
+      </c>
+      <c r="F40" s="11" t="n">
+        <v>0.0916</v>
+      </c>
+      <c r="G40" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" s="11" t="n">
+        <v>0.2336</v>
+      </c>
+      <c r="I40" s="11" t="n">
+        <v>0.2116</v>
+      </c>
+      <c r="J40" s="11" t="n">
+        <v>0.2626</v>
+      </c>
+      <c r="K40" s="11" t="n">
+        <v>0.2416</v>
+      </c>
+      <c r="L40" s="11" t="n">
+        <v>0.2536</v>
+      </c>
+      <c r="M40" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B41" s="11" t="n">
+        <v>0.0196</v>
+      </c>
+      <c r="C41" s="11" t="n">
+        <v>0.0196</v>
+      </c>
+      <c r="D41" s="11" t="n">
+        <v>0.0216</v>
+      </c>
+      <c r="E41" s="11" t="n">
+        <v>0.0156</v>
+      </c>
+      <c r="F41" s="11" t="n">
+        <v>0.0186</v>
+      </c>
+      <c r="G41" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" s="11" t="n">
+        <v>0.2346</v>
+      </c>
+      <c r="I41" s="11" t="n">
+        <v>0.2266</v>
+      </c>
+      <c r="J41" s="11" t="n">
+        <v>0.2146</v>
+      </c>
+      <c r="K41" s="11" t="n">
+        <v>0.1996</v>
+      </c>
+      <c r="L41" s="11" t="n">
+        <v>0.2546</v>
+      </c>
+      <c r="M41" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B42" s="11" t="n">
+        <v>0.0226</v>
+      </c>
+      <c r="C42" s="11" t="n">
+        <v>0.0116</v>
+      </c>
+      <c r="D42" s="11" t="n">
+        <v>0.0116</v>
+      </c>
+      <c r="E42" s="11" t="n">
+        <v>0.0146</v>
+      </c>
+      <c r="F42" s="11" t="n">
+        <v>0.0176</v>
+      </c>
+      <c r="G42" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" s="11" t="n">
+        <v>0.1126</v>
+      </c>
+      <c r="I42" s="11" t="n">
+        <v>0.1236</v>
+      </c>
+      <c r="J42" s="11" t="n">
+        <v>0.1076</v>
+      </c>
+      <c r="K42" s="11" t="n">
+        <v>0.1426</v>
+      </c>
+      <c r="L42" s="11" t="n">
+        <v>0.1206</v>
+      </c>
+      <c r="M42" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B43" s="11" t="n">
+        <v>-0.0034</v>
+      </c>
+      <c r="C43" s="11" t="n">
+        <v>-0.0054</v>
+      </c>
+      <c r="D43" s="11" t="n">
+        <v>-0.0044</v>
+      </c>
+      <c r="E43" s="11" t="n">
+        <v>-0.0024</v>
+      </c>
+      <c r="F43" s="11" t="n">
+        <v>-0.0044</v>
+      </c>
+      <c r="G43" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" s="11" t="n">
+        <v>-0.0034</v>
+      </c>
+      <c r="I43" s="11" t="n">
+        <v>-0.0024</v>
+      </c>
+      <c r="J43" s="11" t="n">
+        <v>-0.0054</v>
+      </c>
+      <c r="K43" s="11" t="n">
+        <v>-0.0024</v>
+      </c>
+      <c r="L43" s="11" t="n">
+        <v>-0.0014</v>
+      </c>
+      <c r="M43" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B44" s="11" t="n">
+        <v>-0.000399999999999998</v>
+      </c>
+      <c r="C44" s="11" t="n">
+        <v>-0.0014</v>
+      </c>
+      <c r="D44" s="11" t="n">
+        <v>-0.0024</v>
+      </c>
+      <c r="E44" s="11" t="n">
+        <v>0.0016</v>
+      </c>
+      <c r="F44" s="11" t="n">
+        <v>0.000599999999999996</v>
+      </c>
+      <c r="G44" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" s="11" t="n">
+        <v>0.000599999999999996</v>
+      </c>
+      <c r="I44" s="11" t="n">
+        <v>-0.0014</v>
+      </c>
+      <c r="J44" s="11" t="n">
+        <v>-0.0024</v>
+      </c>
+      <c r="K44" s="11" t="n">
+        <v>-0.0014</v>
+      </c>
+      <c r="L44" s="11" t="n">
+        <v>-0.0024</v>
+      </c>
+      <c r="M44" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B45" s="11" t="n">
+        <v>0.0036</v>
+      </c>
+      <c r="C45" s="11" t="n">
+        <v>0.0026</v>
+      </c>
+      <c r="D45" s="11" t="n">
+        <v>0.0066</v>
+      </c>
+      <c r="E45" s="11" t="n">
+        <v>0.0066</v>
+      </c>
+      <c r="F45" s="11" t="n">
+        <v>0.0026</v>
+      </c>
+      <c r="G45" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="8" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B2:F2"/>
     <mergeCell ref="B3:F3"/>
-    <mergeCell ref="H3:L3"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="H4:L4"/>
     <mergeCell ref="B5:F5"/>
@@ -1978,6 +2557,8 @@
     <mergeCell ref="B8:F8"/>
     <mergeCell ref="H8:L8"/>
     <mergeCell ref="B9:F9"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="B10:F10"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -1987,4 +2568,398 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:M9"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F29" activeCellId="0" sqref="F29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.1328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="1" style="2" width="8.24"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="5"/>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="11" t="n">
+        <v>0.2276</v>
+      </c>
+      <c r="C3" s="11" t="n">
+        <v>0.2256</v>
+      </c>
+      <c r="D3" s="11" t="n">
+        <v>0.2366</v>
+      </c>
+      <c r="E3" s="11" t="n">
+        <v>0.2256</v>
+      </c>
+      <c r="F3" s="11" t="n">
+        <v>0.2366</v>
+      </c>
+      <c r="G3" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="11" t="n">
+        <v>0.2556</v>
+      </c>
+      <c r="I3" s="11" t="n">
+        <v>0.2086</v>
+      </c>
+      <c r="J3" s="11" t="n">
+        <v>0.1936</v>
+      </c>
+      <c r="K3" s="11" t="n">
+        <v>0.2556</v>
+      </c>
+      <c r="L3" s="11" t="n">
+        <v>0.2286</v>
+      </c>
+      <c r="M3" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="11" t="n">
+        <v>0.1026</v>
+      </c>
+      <c r="C4" s="11" t="n">
+        <v>0.0756</v>
+      </c>
+      <c r="D4" s="11" t="n">
+        <v>0.0816</v>
+      </c>
+      <c r="E4" s="11" t="n">
+        <v>0.0766</v>
+      </c>
+      <c r="F4" s="11" t="n">
+        <v>0.0916</v>
+      </c>
+      <c r="G4" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="11" t="n">
+        <v>0.2336</v>
+      </c>
+      <c r="I4" s="11" t="n">
+        <v>0.2116</v>
+      </c>
+      <c r="J4" s="11" t="n">
+        <v>0.2626</v>
+      </c>
+      <c r="K4" s="11" t="n">
+        <v>0.2416</v>
+      </c>
+      <c r="L4" s="11" t="n">
+        <v>0.2536</v>
+      </c>
+      <c r="M4" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="11" t="n">
+        <v>0.0196</v>
+      </c>
+      <c r="C5" s="11" t="n">
+        <v>0.0196</v>
+      </c>
+      <c r="D5" s="11" t="n">
+        <v>0.0216</v>
+      </c>
+      <c r="E5" s="11" t="n">
+        <v>0.0156</v>
+      </c>
+      <c r="F5" s="11" t="n">
+        <v>0.0186</v>
+      </c>
+      <c r="G5" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="11" t="n">
+        <v>0.2346</v>
+      </c>
+      <c r="I5" s="11" t="n">
+        <v>0.2266</v>
+      </c>
+      <c r="J5" s="11" t="n">
+        <v>0.2146</v>
+      </c>
+      <c r="K5" s="11" t="n">
+        <v>0.1996</v>
+      </c>
+      <c r="L5" s="11" t="n">
+        <v>0.2546</v>
+      </c>
+      <c r="M5" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="11" t="n">
+        <v>0.0226</v>
+      </c>
+      <c r="C6" s="11" t="n">
+        <v>0.0116</v>
+      </c>
+      <c r="D6" s="11" t="n">
+        <v>0.0116</v>
+      </c>
+      <c r="E6" s="11" t="n">
+        <v>0.0146</v>
+      </c>
+      <c r="F6" s="11" t="n">
+        <v>0.0176</v>
+      </c>
+      <c r="G6" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="11" t="n">
+        <v>0.1126</v>
+      </c>
+      <c r="I6" s="11" t="n">
+        <v>0.1236</v>
+      </c>
+      <c r="J6" s="11" t="n">
+        <v>0.1076</v>
+      </c>
+      <c r="K6" s="11" t="n">
+        <v>0.1426</v>
+      </c>
+      <c r="L6" s="11" t="n">
+        <v>0.1206</v>
+      </c>
+      <c r="M6" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="11" t="n">
+        <v>-0.0034</v>
+      </c>
+      <c r="C7" s="11" t="n">
+        <v>-0.0054</v>
+      </c>
+      <c r="D7" s="11" t="n">
+        <v>-0.0044</v>
+      </c>
+      <c r="E7" s="11" t="n">
+        <v>-0.0024</v>
+      </c>
+      <c r="F7" s="11" t="n">
+        <v>-0.0044</v>
+      </c>
+      <c r="G7" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="11" t="n">
+        <v>-0.0034</v>
+      </c>
+      <c r="I7" s="11" t="n">
+        <v>-0.0024</v>
+      </c>
+      <c r="J7" s="11" t="n">
+        <v>-0.0054</v>
+      </c>
+      <c r="K7" s="11" t="n">
+        <v>-0.0024</v>
+      </c>
+      <c r="L7" s="11" t="n">
+        <v>-0.0014</v>
+      </c>
+      <c r="M7" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="11" t="n">
+        <v>-0.000399999999999998</v>
+      </c>
+      <c r="C8" s="11" t="n">
+        <v>-0.0014</v>
+      </c>
+      <c r="D8" s="11" t="n">
+        <v>-0.0024</v>
+      </c>
+      <c r="E8" s="11" t="n">
+        <v>0.0016</v>
+      </c>
+      <c r="F8" s="11" t="n">
+        <v>0.000599999999999996</v>
+      </c>
+      <c r="G8" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="11" t="n">
+        <v>0.000599999999999996</v>
+      </c>
+      <c r="I8" s="11" t="n">
+        <v>-0.0014</v>
+      </c>
+      <c r="J8" s="11" t="n">
+        <v>-0.0024</v>
+      </c>
+      <c r="K8" s="11" t="n">
+        <v>-0.0014</v>
+      </c>
+      <c r="L8" s="11" t="n">
+        <v>-0.0024</v>
+      </c>
+      <c r="M8" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="11" t="n">
+        <v>0.0036</v>
+      </c>
+      <c r="C9" s="11" t="n">
+        <v>0.0026</v>
+      </c>
+      <c r="D9" s="11" t="n">
+        <v>0.0066</v>
+      </c>
+      <c r="E9" s="11" t="n">
+        <v>0.0066</v>
+      </c>
+      <c r="F9" s="11" t="n">
+        <v>0.0026</v>
+      </c>
+      <c r="G9" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/20230116_MTT_1108_GEM_Verte.xlsx
+++ b/20230116_MTT_1108_GEM_Verte.xlsx
@@ -5,13 +5,14 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="550.0" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Result Data" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="Schema" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="output" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="output2" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="36">
   <si>
     <t xml:space="preserve">Raw Data{Wavelength:550.0}</t>
   </si>
@@ -238,7 +239,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -246,7 +247,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -258,7 +259,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1083,8 +1084,8 @@
   </sheetPr>
   <dimension ref="A1:M47"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A23" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A37" activeCellId="0" sqref="A37"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.1328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2577,8 +2578,8 @@
   </sheetPr>
   <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F29" activeCellId="0" sqref="F29"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H18" activeCellId="0" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.1328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2962,4 +2963,395 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:M9"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.1328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="5"/>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="6" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="C2" s="6" t="n">
+        <v>0.048</v>
+      </c>
+      <c r="D2" s="6" t="n">
+        <v>0.048</v>
+      </c>
+      <c r="E2" s="6" t="n">
+        <v>0.046</v>
+      </c>
+      <c r="F2" s="6" t="n">
+        <v>0.048</v>
+      </c>
+      <c r="G2" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="6" t="n">
+        <v>0.278</v>
+      </c>
+      <c r="C3" s="6" t="n">
+        <v>0.276</v>
+      </c>
+      <c r="D3" s="6" t="n">
+        <v>0.287</v>
+      </c>
+      <c r="E3" s="6" t="n">
+        <v>0.276</v>
+      </c>
+      <c r="F3" s="6" t="n">
+        <v>0.287</v>
+      </c>
+      <c r="G3" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="6" t="n">
+        <v>0.306</v>
+      </c>
+      <c r="I3" s="6" t="n">
+        <v>0.259</v>
+      </c>
+      <c r="J3" s="6" t="n">
+        <v>0.244</v>
+      </c>
+      <c r="K3" s="6" t="n">
+        <v>0.306</v>
+      </c>
+      <c r="L3" s="6" t="n">
+        <v>0.279</v>
+      </c>
+      <c r="M3" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="6" t="n">
+        <v>0.153</v>
+      </c>
+      <c r="C4" s="6" t="n">
+        <v>0.126</v>
+      </c>
+      <c r="D4" s="6" t="n">
+        <v>0.132</v>
+      </c>
+      <c r="E4" s="6" t="n">
+        <v>0.127</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>0.142</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>0.284</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>0.262</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.313</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>0.292</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>0.304</v>
+      </c>
+      <c r="M4" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="6" t="n">
+        <v>0.07</v>
+      </c>
+      <c r="C5" s="6" t="n">
+        <v>0.07</v>
+      </c>
+      <c r="D5" s="6" t="n">
+        <v>0.072</v>
+      </c>
+      <c r="E5" s="6" t="n">
+        <v>0.066</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>0.069</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>0.277</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="M5" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="6" t="n">
+        <v>0.073</v>
+      </c>
+      <c r="C6" s="6" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="D6" s="6" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="E6" s="6" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>0.068</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>0.163</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>0.174</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>0.158</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>0.193</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>0.171</v>
+      </c>
+      <c r="M6" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="6" t="n">
+        <v>0.047</v>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>0.046</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>0.048</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>0.046</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>0.047</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>0.048</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>0.048</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>0.049</v>
+      </c>
+      <c r="M7" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="6" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>0.049</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>0.048</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>0.052</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>0.051</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>0.051</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>0.049</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>0.048</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>0.049</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>0.048</v>
+      </c>
+      <c r="M8" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="6" t="n">
+        <v>0.054</v>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>0.053</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>0.057</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>0.057</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>0.053</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>